--- a/medicine/Handicap/Lois_contre_la_discrimination_des_personnes_handicapées/Lois_contre_la_discrimination_des_personnes_handicapées.xlsx
+++ b/medicine/Handicap/Lois_contre_la_discrimination_des_personnes_handicapées/Lois_contre_la_discrimination_des_personnes_handicapées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lois_contre_la_discrimination_des_personnes_handicap%C3%A9es</t>
+          <t>Lois_contre_la_discrimination_des_personnes_handicapées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lois contre la discrimination des personnes handicapées sont des lois visant à réduire la discrimination contre les personnes handicapées, adoptées à la fin du XXe siècle et au début du XXIe siècle par un certain nombre de pays. 
-Ces lois ont commencé à apparaître lorsque la notion de droits civils est devenue plus influente à l'échelle mondiale, afin de suivre d'autres formes de lois anti-discrimination et de garantir l'égalité des chances, visant à prévenir la discrimination raciale et le sexisme. Cette idée a commencé à émerger durant la seconde moitié du XXe siècle. Beaucoup de ces lois visent à réduire les obstacles pour les personnes handicapées dans les domaines du service à la clientèle, de l'emploi, de l'environnement bâti, des transports, de l'information et des communications[1].
+Ces lois ont commencé à apparaître lorsque la notion de droits civils est devenue plus influente à l'échelle mondiale, afin de suivre d'autres formes de lois anti-discrimination et de garantir l'égalité des chances, visant à prévenir la discrimination raciale et le sexisme. Cette idée a commencé à émerger durant la seconde moitié du XXe siècle. Beaucoup de ces lois visent à réduire les obstacles pour les personnes handicapées dans les domaines du service à la clientèle, de l'emploi, de l'environnement bâti, des transports, de l'information et des communications.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lois_contre_la_discrimination_des_personnes_handicap%C3%A9es</t>
+          <t>Lois_contre_la_discrimination_des_personnes_handicapées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Liste des lois contre la discrimination des personnes handicapées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Australie : Disability Discrimination Act de 1992
-Canada : Ontarians with Disabilities Act (2002), The Accessibility for Manitobans Act (2013)[2]
+Canada : Ontarians with Disabilities Act (2002), The Accessibility for Manitobans Act (2013)
 France : Loi pour l'égalité des droits et des chances, la participation et la citoyenneté des personnes handicapées (2005)
 Hong Kong : Disability Discrimination Ordinance 1995
 Pakistan : National Policy for Persons with Disabilities 2002
